--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema3b-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema3b-Nrp1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.279157333333333</v>
+        <v>3.275082666666667</v>
       </c>
       <c r="H2">
-        <v>3.837471999999999</v>
+        <v>9.825248</v>
       </c>
       <c r="I2">
-        <v>0.1094775343043046</v>
+        <v>0.284947286227646</v>
       </c>
       <c r="J2">
-        <v>0.1094775343043046</v>
+        <v>0.2849472862276461</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>97.419871</v>
+        <v>92.253011</v>
       </c>
       <c r="N2">
-        <v>292.259613</v>
+        <v>276.759033</v>
       </c>
       <c r="O2">
-        <v>0.3451284562056486</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="P2">
-        <v>0.3451284562056485</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="Q2">
-        <v>124.6153424020373</v>
+        <v>302.1362372739093</v>
       </c>
       <c r="R2">
-        <v>1121.538081618336</v>
+        <v>2719.226135465184</v>
       </c>
       <c r="S2">
-        <v>0.03778381240364558</v>
+        <v>0.08134419199353539</v>
       </c>
       <c r="T2">
-        <v>0.03778381240364557</v>
+        <v>0.08134419199353539</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.279157333333333</v>
+        <v>3.275082666666667</v>
       </c>
       <c r="H3">
-        <v>3.837471999999999</v>
+        <v>9.825248</v>
       </c>
       <c r="I3">
-        <v>0.1094775343043046</v>
+        <v>0.284947286227646</v>
       </c>
       <c r="J3">
-        <v>0.1094775343043046</v>
+        <v>0.2849472862276461</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>104.738514</v>
       </c>
       <c r="O3">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="P3">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="Q3">
-        <v>44.65901275517866</v>
+        <v>114.3424305779413</v>
       </c>
       <c r="R3">
-        <v>401.9311147966079</v>
+        <v>1029.081875201472</v>
       </c>
       <c r="S3">
-        <v>0.01354077056282356</v>
+        <v>0.03078443257869598</v>
       </c>
       <c r="T3">
-        <v>0.01354077056282356</v>
+        <v>0.03078443257869598</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.279157333333333</v>
+        <v>3.275082666666667</v>
       </c>
       <c r="H4">
-        <v>3.837471999999999</v>
+        <v>9.825248</v>
       </c>
       <c r="I4">
-        <v>0.1094775343043046</v>
+        <v>0.284947286227646</v>
       </c>
       <c r="J4">
-        <v>0.1094775343043046</v>
+        <v>0.2849472862276461</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>50.427193</v>
+        <v>42.21774566666667</v>
       </c>
       <c r="N4">
-        <v>151.281579</v>
+        <v>126.653237</v>
       </c>
       <c r="O4">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="P4">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="Q4">
-        <v>64.50431372536531</v>
+        <v>138.2666070586418</v>
       </c>
       <c r="R4">
-        <v>580.5388235282878</v>
+        <v>1244.399463527776</v>
       </c>
       <c r="S4">
-        <v>0.01955793598160718</v>
+        <v>0.03722554279603492</v>
       </c>
       <c r="T4">
-        <v>0.01955793598160717</v>
+        <v>0.03722554279603493</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.279157333333333</v>
+        <v>3.275082666666667</v>
       </c>
       <c r="H5">
-        <v>3.837471999999999</v>
+        <v>9.825248</v>
       </c>
       <c r="I5">
-        <v>0.1094775343043046</v>
+        <v>0.284947286227646</v>
       </c>
       <c r="J5">
-        <v>0.1094775343043046</v>
+        <v>0.2849472862276461</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.01808066666667</v>
+        <v>13.65158233333333</v>
       </c>
       <c r="N5">
-        <v>48.054242</v>
+        <v>40.954747</v>
       </c>
       <c r="O5">
-        <v>0.05674710297927014</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="P5">
-        <v>0.05674710297927013</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="Q5">
-        <v>20.48964535069155</v>
+        <v>44.71006067247288</v>
       </c>
       <c r="R5">
-        <v>184.406808156224</v>
+        <v>402.390546052256</v>
       </c>
       <c r="S5">
-        <v>0.006212532913082952</v>
+        <v>0.01203729745296034</v>
       </c>
       <c r="T5">
-        <v>0.006212532913082951</v>
+        <v>0.01203729745296034</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.279157333333333</v>
+        <v>3.275082666666667</v>
       </c>
       <c r="H6">
-        <v>3.837471999999999</v>
+        <v>9.825248</v>
       </c>
       <c r="I6">
-        <v>0.1094775343043046</v>
+        <v>0.284947286227646</v>
       </c>
       <c r="J6">
-        <v>0.1094775343043046</v>
+        <v>0.2849472862276461</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.609342</v>
+        <v>18.17840666666667</v>
       </c>
       <c r="N6">
-        <v>58.82802600000001</v>
+        <v>54.53522</v>
       </c>
       <c r="O6">
-        <v>0.06946983056124748</v>
+        <v>0.0562519120841046</v>
       </c>
       <c r="P6">
-        <v>0.06946983056124745</v>
+        <v>0.05625191208410459</v>
       </c>
       <c r="Q6">
-        <v>25.08343362114133</v>
+        <v>59.53578458161778</v>
       </c>
       <c r="R6">
-        <v>225.750902590272</v>
+        <v>535.82206123456</v>
       </c>
       <c r="S6">
-        <v>0.007605385758383197</v>
+        <v>0.01602882969348174</v>
       </c>
       <c r="T6">
-        <v>0.007605385758383195</v>
+        <v>0.01602882969348174</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.279157333333333</v>
+        <v>3.275082666666667</v>
       </c>
       <c r="H7">
-        <v>3.837471999999999</v>
+        <v>9.825248</v>
       </c>
       <c r="I7">
-        <v>0.1094775343043046</v>
+        <v>0.284947286227646</v>
       </c>
       <c r="J7">
-        <v>0.1094775343043046</v>
+        <v>0.2849472862276461</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>63.884013</v>
+        <v>121.9471053333333</v>
       </c>
       <c r="N7">
-        <v>191.652039</v>
+        <v>365.841316</v>
       </c>
       <c r="O7">
-        <v>0.2263212890408322</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="P7">
-        <v>0.2263212890408321</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="Q7">
-        <v>81.71770371171199</v>
+        <v>399.3868509273742</v>
       </c>
       <c r="R7">
-        <v>735.4593334054078</v>
+        <v>3594.481658346368</v>
       </c>
       <c r="S7">
-        <v>0.02477709668476214</v>
+        <v>0.1075269917129377</v>
       </c>
       <c r="T7">
-        <v>0.02477709668476213</v>
+        <v>0.1075269917129377</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,13 +918,13 @@
         <v>3.132367666666667</v>
       </c>
       <c r="H8">
-        <v>9.397103000000001</v>
+        <v>9.397103</v>
       </c>
       <c r="I8">
-        <v>0.2680857778359253</v>
+        <v>0.2725304234815927</v>
       </c>
       <c r="J8">
-        <v>0.2680857778359254</v>
+        <v>0.2725304234815927</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>97.419871</v>
+        <v>92.253011</v>
       </c>
       <c r="N8">
-        <v>292.259613</v>
+        <v>276.759033</v>
       </c>
       <c r="O8">
-        <v>0.3451284562056486</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="P8">
-        <v>0.3451284562056485</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="Q8">
-        <v>305.1548540112377</v>
+        <v>288.9703488090443</v>
       </c>
       <c r="R8">
-        <v>2746.393686101139</v>
+        <v>2600.733139281399</v>
       </c>
       <c r="S8">
-        <v>0.09252403063520338</v>
+        <v>0.07779953753992036</v>
       </c>
       <c r="T8">
-        <v>0.09252403063520337</v>
+        <v>0.07779953753992035</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,13 +980,13 @@
         <v>3.132367666666667</v>
       </c>
       <c r="H9">
-        <v>9.397103000000001</v>
+        <v>9.397103</v>
       </c>
       <c r="I9">
-        <v>0.2680857778359253</v>
+        <v>0.2725304234815927</v>
       </c>
       <c r="J9">
-        <v>0.2680857778359254</v>
+        <v>0.2725304234815927</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>104.738514</v>
       </c>
       <c r="O9">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="P9">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="Q9">
-        <v>109.3598449027714</v>
+        <v>109.3598449027713</v>
       </c>
       <c r="R9">
-        <v>984.2386041249422</v>
+        <v>984.2386041249421</v>
       </c>
       <c r="S9">
-        <v>0.03315829162485642</v>
+        <v>0.02944297016610285</v>
       </c>
       <c r="T9">
-        <v>0.03315829162485642</v>
+        <v>0.02944297016610285</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,13 +1042,13 @@
         <v>3.132367666666667</v>
       </c>
       <c r="H10">
-        <v>9.397103000000001</v>
+        <v>9.397103</v>
       </c>
       <c r="I10">
-        <v>0.2680857778359253</v>
+        <v>0.2725304234815927</v>
       </c>
       <c r="J10">
-        <v>0.2680857778359254</v>
+        <v>0.2725304234815927</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>50.427193</v>
+        <v>42.21774566666667</v>
       </c>
       <c r="N10">
-        <v>151.281579</v>
+        <v>126.653237</v>
       </c>
       <c r="O10">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="P10">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="Q10">
-        <v>157.9565088739597</v>
+        <v>132.2415014858235</v>
       </c>
       <c r="R10">
-        <v>1421.608579865637</v>
+        <v>1190.173513372411</v>
       </c>
       <c r="S10">
-        <v>0.04789297195824981</v>
+        <v>0.03560340256910036</v>
       </c>
       <c r="T10">
-        <v>0.0478929719582498</v>
+        <v>0.03560340256910036</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,13 +1104,13 @@
         <v>3.132367666666667</v>
       </c>
       <c r="H11">
-        <v>9.397103000000001</v>
+        <v>9.397103</v>
       </c>
       <c r="I11">
-        <v>0.2680857778359253</v>
+        <v>0.2725304234815927</v>
       </c>
       <c r="J11">
-        <v>0.2680857778359254</v>
+        <v>0.2725304234815927</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.01808066666667</v>
+        <v>13.65158233333333</v>
       </c>
       <c r="N11">
-        <v>48.054242</v>
+        <v>40.954747</v>
       </c>
       <c r="O11">
-        <v>0.05674710297927014</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="P11">
-        <v>0.05674710297927013</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="Q11">
-        <v>50.17451796232512</v>
+        <v>42.76177509977122</v>
       </c>
       <c r="R11">
-        <v>451.5706616609261</v>
+        <v>384.8559758979409</v>
       </c>
       <c r="S11">
-        <v>0.01521309124213299</v>
+        <v>0.0115127601875399</v>
       </c>
       <c r="T11">
-        <v>0.01521309124213299</v>
+        <v>0.0115127601875399</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1166,13 +1166,13 @@
         <v>3.132367666666667</v>
       </c>
       <c r="H12">
-        <v>9.397103000000001</v>
+        <v>9.397103</v>
       </c>
       <c r="I12">
-        <v>0.2680857778359253</v>
+        <v>0.2725304234815927</v>
       </c>
       <c r="J12">
-        <v>0.2680857778359254</v>
+        <v>0.2725304234815927</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>19.609342</v>
+        <v>18.17840666666667</v>
       </c>
       <c r="N12">
-        <v>58.82802600000001</v>
+        <v>54.53522</v>
       </c>
       <c r="O12">
-        <v>0.06946983056124748</v>
+        <v>0.0562519120841046</v>
       </c>
       <c r="P12">
-        <v>0.06946983056124745</v>
+        <v>0.05625191208410459</v>
       </c>
       <c r="Q12">
-        <v>61.42366884540868</v>
+        <v>56.94145327418445</v>
       </c>
       <c r="R12">
-        <v>552.8130196086781</v>
+        <v>512.47307946766</v>
       </c>
       <c r="S12">
-        <v>0.01862387356214196</v>
+        <v>0.01533035742193035</v>
       </c>
       <c r="T12">
-        <v>0.01862387356214196</v>
+        <v>0.01533035742193035</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1228,13 +1228,13 @@
         <v>3.132367666666667</v>
       </c>
       <c r="H13">
-        <v>9.397103000000001</v>
+        <v>9.397103</v>
       </c>
       <c r="I13">
-        <v>0.2680857778359253</v>
+        <v>0.2725304234815927</v>
       </c>
       <c r="J13">
-        <v>0.2680857778359254</v>
+        <v>0.2725304234815927</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>63.884013</v>
+        <v>121.9471053333333</v>
       </c>
       <c r="N13">
-        <v>191.652039</v>
+        <v>365.841316</v>
       </c>
       <c r="O13">
-        <v>0.2263212890408322</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="P13">
-        <v>0.2263212890408321</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="Q13">
-        <v>200.108216738113</v>
+        <v>381.9831697897276</v>
       </c>
       <c r="R13">
-        <v>1800.973950643017</v>
+        <v>3437.848528107548</v>
       </c>
       <c r="S13">
-        <v>0.06067351881334078</v>
+        <v>0.1028413955969989</v>
       </c>
       <c r="T13">
-        <v>0.06067351881334077</v>
+        <v>0.1028413955969989</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.199985</v>
+        <v>0.8420473333333333</v>
       </c>
       <c r="H14">
-        <v>3.599955</v>
+        <v>2.526142</v>
       </c>
       <c r="I14">
-        <v>0.1027015173026547</v>
+        <v>0.07326199883460226</v>
       </c>
       <c r="J14">
-        <v>0.1027015173026547</v>
+        <v>0.07326199883460227</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>97.419871</v>
+        <v>92.253011</v>
       </c>
       <c r="N14">
-        <v>292.259613</v>
+        <v>276.759033</v>
       </c>
       <c r="O14">
-        <v>0.3451284562056486</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="P14">
-        <v>0.3451284562056485</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="Q14">
-        <v>116.902383901935</v>
+        <v>77.68140190452065</v>
       </c>
       <c r="R14">
-        <v>1052.121455117415</v>
+        <v>699.1326171406859</v>
       </c>
       <c r="S14">
-        <v>0.03544521611664292</v>
+        <v>0.02091417741831387</v>
       </c>
       <c r="T14">
-        <v>0.03544521611664291</v>
+        <v>0.02091417741831387</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.199985</v>
+        <v>0.8420473333333333</v>
       </c>
       <c r="H15">
-        <v>3.599955</v>
+        <v>2.526142</v>
       </c>
       <c r="I15">
-        <v>0.1027015173026547</v>
+        <v>0.07326199883460226</v>
       </c>
       <c r="J15">
-        <v>0.1027015173026547</v>
+        <v>0.07326199883460227</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>104.738514</v>
       </c>
       <c r="O15">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="P15">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="Q15">
-        <v>41.89488190743</v>
+        <v>29.39826213699866</v>
       </c>
       <c r="R15">
-        <v>377.05393716687</v>
+        <v>264.584359232988</v>
       </c>
       <c r="S15">
-        <v>0.01270267631698407</v>
+        <v>0.007914899255796108</v>
       </c>
       <c r="T15">
-        <v>0.01270267631698407</v>
+        <v>0.00791489925579611</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.199985</v>
+        <v>0.8420473333333333</v>
       </c>
       <c r="H16">
-        <v>3.599955</v>
+        <v>2.526142</v>
       </c>
       <c r="I16">
-        <v>0.1027015173026547</v>
+        <v>0.07326199883460226</v>
       </c>
       <c r="J16">
-        <v>0.1027015173026547</v>
+        <v>0.07326199883460227</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>50.427193</v>
+        <v>42.21774566666667</v>
       </c>
       <c r="N16">
-        <v>151.281579</v>
+        <v>126.653237</v>
       </c>
       <c r="O16">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="P16">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="Q16">
-        <v>60.51187519210499</v>
+        <v>35.54934015796156</v>
       </c>
       <c r="R16">
-        <v>544.6068767289449</v>
+        <v>319.944061421654</v>
       </c>
       <c r="S16">
-        <v>0.01834741450274208</v>
+        <v>0.00957095506697248</v>
       </c>
       <c r="T16">
-        <v>0.01834741450274208</v>
+        <v>0.009570955066972482</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.199985</v>
+        <v>0.8420473333333333</v>
       </c>
       <c r="H17">
-        <v>3.599955</v>
+        <v>2.526142</v>
       </c>
       <c r="I17">
-        <v>0.1027015173026547</v>
+        <v>0.07326199883460226</v>
       </c>
       <c r="J17">
-        <v>0.1027015173026547</v>
+        <v>0.07326199883460227</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.01808066666667</v>
+        <v>13.65158233333333</v>
       </c>
       <c r="N17">
-        <v>48.054242</v>
+        <v>40.954747</v>
       </c>
       <c r="O17">
-        <v>0.05674710297927014</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="P17">
-        <v>0.05674710297927013</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="Q17">
-        <v>19.22145652879</v>
+        <v>11.49527849956378</v>
       </c>
       <c r="R17">
-        <v>172.99310875911</v>
+        <v>103.457506496074</v>
       </c>
       <c r="S17">
-        <v>0.00582801357850104</v>
+        <v>0.003094875840530045</v>
       </c>
       <c r="T17">
-        <v>0.005828013578501039</v>
+        <v>0.003094875840530045</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.199985</v>
+        <v>0.8420473333333333</v>
       </c>
       <c r="H18">
-        <v>3.599955</v>
+        <v>2.526142</v>
       </c>
       <c r="I18">
-        <v>0.1027015173026547</v>
+        <v>0.07326199883460226</v>
       </c>
       <c r="J18">
-        <v>0.1027015173026547</v>
+        <v>0.07326199883460227</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>19.609342</v>
+        <v>18.17840666666667</v>
       </c>
       <c r="N18">
-        <v>58.82802600000001</v>
+        <v>54.53522</v>
       </c>
       <c r="O18">
-        <v>0.06946983056124748</v>
+        <v>0.0562519120841046</v>
       </c>
       <c r="P18">
-        <v>0.06946983056124745</v>
+        <v>0.05625191208410459</v>
       </c>
       <c r="Q18">
-        <v>23.53091625987</v>
+        <v>15.30707885791555</v>
       </c>
       <c r="R18">
-        <v>211.77824633883</v>
+        <v>137.76370972124</v>
       </c>
       <c r="S18">
-        <v>0.007134657005398446</v>
+        <v>0.004121127517549819</v>
       </c>
       <c r="T18">
-        <v>0.007134657005398444</v>
+        <v>0.00412112751754982</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.199985</v>
+        <v>0.8420473333333333</v>
       </c>
       <c r="H19">
-        <v>3.599955</v>
+        <v>2.526142</v>
       </c>
       <c r="I19">
-        <v>0.1027015173026547</v>
+        <v>0.07326199883460226</v>
       </c>
       <c r="J19">
-        <v>0.1027015173026547</v>
+        <v>0.07326199883460227</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>63.884013</v>
+        <v>121.9471053333333</v>
       </c>
       <c r="N19">
-        <v>191.652039</v>
+        <v>365.841316</v>
       </c>
       <c r="O19">
-        <v>0.2263212890408322</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="P19">
-        <v>0.2263212890408321</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="Q19">
-        <v>76.659857339805</v>
+        <v>102.6852348536524</v>
       </c>
       <c r="R19">
-        <v>689.9387160582449</v>
+        <v>924.1671136828719</v>
       </c>
       <c r="S19">
-        <v>0.02324353978238614</v>
+        <v>0.02764596373543994</v>
       </c>
       <c r="T19">
-        <v>0.02324353978238613</v>
+        <v>0.02764596373543995</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.439607333333334</v>
+        <v>2.772604</v>
       </c>
       <c r="H20">
-        <v>13.318822</v>
+        <v>8.317812</v>
       </c>
       <c r="I20">
-        <v>0.3799667573855723</v>
+        <v>0.241229326399878</v>
       </c>
       <c r="J20">
-        <v>0.3799667573855724</v>
+        <v>0.2412293263998781</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>97.419871</v>
+        <v>92.253011</v>
       </c>
       <c r="N20">
-        <v>292.259613</v>
+        <v>276.759033</v>
       </c>
       <c r="O20">
-        <v>0.3451284562056486</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="P20">
-        <v>0.3451284562056485</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="Q20">
-        <v>432.5059737039874</v>
+        <v>255.781067310644</v>
       </c>
       <c r="R20">
-        <v>3892.553763335886</v>
+        <v>2302.029605795796</v>
       </c>
       <c r="S20">
-        <v>0.1311373403859488</v>
+        <v>0.06886398147854716</v>
       </c>
       <c r="T20">
-        <v>0.1311373403859488</v>
+        <v>0.06886398147854716</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.439607333333334</v>
+        <v>2.772604</v>
       </c>
       <c r="H21">
-        <v>13.318822</v>
+        <v>8.317812</v>
       </c>
       <c r="I21">
-        <v>0.3799667573855723</v>
+        <v>0.241229326399878</v>
       </c>
       <c r="J21">
-        <v>0.3799667573855724</v>
+        <v>0.2412293263998781</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>104.738514</v>
       </c>
       <c r="O21">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="P21">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="Q21">
-        <v>154.9992916122787</v>
+        <v>96.79947429015199</v>
       </c>
       <c r="R21">
-        <v>1394.993624510508</v>
+        <v>871.1952686113681</v>
       </c>
       <c r="S21">
-        <v>0.04699633322903382</v>
+        <v>0.02606133938973025</v>
       </c>
       <c r="T21">
-        <v>0.04699633322903381</v>
+        <v>0.02606133938973025</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.439607333333334</v>
+        <v>2.772604</v>
       </c>
       <c r="H22">
-        <v>13.318822</v>
+        <v>8.317812</v>
       </c>
       <c r="I22">
-        <v>0.3799667573855723</v>
+        <v>0.241229326399878</v>
       </c>
       <c r="J22">
-        <v>0.3799667573855724</v>
+        <v>0.2412293263998781</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>50.427193</v>
+        <v>42.21774566666667</v>
       </c>
       <c r="N22">
-        <v>151.281579</v>
+        <v>126.653237</v>
       </c>
       <c r="O22">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="P22">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="Q22">
-        <v>223.8769358422153</v>
+        <v>117.0530905063827</v>
       </c>
       <c r="R22">
-        <v>2014.892422579938</v>
+        <v>1053.477814557444</v>
       </c>
       <c r="S22">
-        <v>0.06788027848188112</v>
+        <v>0.03151422402522285</v>
       </c>
       <c r="T22">
-        <v>0.06788027848188111</v>
+        <v>0.03151422402522286</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.439607333333334</v>
+        <v>2.772604</v>
       </c>
       <c r="H23">
-        <v>13.318822</v>
+        <v>8.317812</v>
       </c>
       <c r="I23">
-        <v>0.3799667573855723</v>
+        <v>0.241229326399878</v>
       </c>
       <c r="J23">
-        <v>0.3799667573855724</v>
+        <v>0.2412293263998781</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>16.01808066666667</v>
+        <v>13.65158233333333</v>
       </c>
       <c r="N23">
-        <v>48.054242</v>
+        <v>40.954747</v>
       </c>
       <c r="O23">
-        <v>0.05674710297927014</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="P23">
-        <v>0.05674710297927013</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="Q23">
-        <v>71.11398839365823</v>
+        <v>37.85043178372933</v>
       </c>
       <c r="R23">
-        <v>640.0258955429241</v>
+        <v>340.653886053564</v>
       </c>
       <c r="S23">
-        <v>0.02156201271005843</v>
+        <v>0.01019047836775244</v>
       </c>
       <c r="T23">
-        <v>0.02156201271005843</v>
+        <v>0.01019047836775245</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.439607333333334</v>
+        <v>2.772604</v>
       </c>
       <c r="H24">
-        <v>13.318822</v>
+        <v>8.317812</v>
       </c>
       <c r="I24">
-        <v>0.3799667573855723</v>
+        <v>0.241229326399878</v>
       </c>
       <c r="J24">
-        <v>0.3799667573855724</v>
+        <v>0.2412293263998781</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>19.609342</v>
+        <v>18.17840666666667</v>
       </c>
       <c r="N24">
-        <v>58.82802600000001</v>
+        <v>54.53522</v>
       </c>
       <c r="O24">
-        <v>0.06946983056124748</v>
+        <v>0.0562519120841046</v>
       </c>
       <c r="P24">
-        <v>0.06946983056124745</v>
+        <v>0.05625191208410459</v>
       </c>
       <c r="Q24">
-        <v>87.05777854504136</v>
+        <v>50.40152303762667</v>
       </c>
       <c r="R24">
-        <v>783.5200069053722</v>
+        <v>453.61370733864</v>
       </c>
       <c r="S24">
-        <v>0.02639622625448234</v>
+        <v>0.01356961086075371</v>
       </c>
       <c r="T24">
-        <v>0.02639622625448233</v>
+        <v>0.01356961086075371</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.439607333333334</v>
+        <v>2.772604</v>
       </c>
       <c r="H25">
-        <v>13.318822</v>
+        <v>8.317812</v>
       </c>
       <c r="I25">
-        <v>0.3799667573855723</v>
+        <v>0.241229326399878</v>
       </c>
       <c r="J25">
-        <v>0.3799667573855724</v>
+        <v>0.2412293263998781</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>63.884013</v>
+        <v>121.9471053333333</v>
       </c>
       <c r="N25">
-        <v>191.652039</v>
+        <v>365.841316</v>
       </c>
       <c r="O25">
-        <v>0.2263212890408322</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="P25">
-        <v>0.2263212890408321</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="Q25">
-        <v>283.6199325975621</v>
+        <v>338.1110320356213</v>
       </c>
       <c r="R25">
-        <v>2552.579393378058</v>
+        <v>3042.999288320592</v>
       </c>
       <c r="S25">
-        <v>0.08599456632416788</v>
+        <v>0.09102969227787164</v>
       </c>
       <c r="T25">
-        <v>0.08599456632416787</v>
+        <v>0.09102969227787165</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.7877936666666666</v>
+        <v>0.4650239999999999</v>
       </c>
       <c r="H26">
-        <v>2.363381</v>
+        <v>1.395072</v>
       </c>
       <c r="I26">
-        <v>0.06742384687149293</v>
+        <v>0.04045923120639546</v>
       </c>
       <c r="J26">
-        <v>0.06742384687149294</v>
+        <v>0.04045923120639547</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>97.419871</v>
+        <v>92.253011</v>
       </c>
       <c r="N26">
-        <v>292.259613</v>
+        <v>276.759033</v>
       </c>
       <c r="O26">
-        <v>0.3451284562056486</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="P26">
-        <v>0.3451284562056485</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="Q26">
-        <v>76.74675738128366</v>
+        <v>42.89986418726399</v>
       </c>
       <c r="R26">
-        <v>690.720816431553</v>
+        <v>386.0987776853759</v>
       </c>
       <c r="S26">
-        <v>0.0232698881822044</v>
+        <v>0.01154993793671217</v>
       </c>
       <c r="T26">
-        <v>0.0232698881822044</v>
+        <v>0.01154993793671217</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.7877936666666666</v>
+        <v>0.4650239999999999</v>
       </c>
       <c r="H27">
-        <v>2.363381</v>
+        <v>1.395072</v>
       </c>
       <c r="I27">
-        <v>0.06742384687149293</v>
+        <v>0.04045923120639546</v>
       </c>
       <c r="J27">
-        <v>0.06742384687149294</v>
+        <v>0.04045923120639547</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>104.738514</v>
       </c>
       <c r="O27">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="P27">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="Q27">
-        <v>27.50411266175933</v>
+        <v>16.235307578112</v>
       </c>
       <c r="R27">
-        <v>247.537013955834</v>
+        <v>146.117768203008</v>
       </c>
       <c r="S27">
-        <v>0.008339344201999783</v>
+        <v>0.004371034698200651</v>
       </c>
       <c r="T27">
-        <v>0.008339344201999783</v>
+        <v>0.004371034698200652</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.7877936666666666</v>
+        <v>0.4650239999999999</v>
       </c>
       <c r="H28">
-        <v>2.363381</v>
+        <v>1.395072</v>
       </c>
       <c r="I28">
-        <v>0.06742384687149293</v>
+        <v>0.04045923120639546</v>
       </c>
       <c r="J28">
-        <v>0.06742384687149294</v>
+        <v>0.04045923120639547</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>50.427193</v>
+        <v>42.21774566666667</v>
       </c>
       <c r="N28">
-        <v>151.281579</v>
+        <v>126.653237</v>
       </c>
       <c r="O28">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="P28">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="Q28">
-        <v>39.72622327317766</v>
+        <v>19.632264960896</v>
       </c>
       <c r="R28">
-        <v>357.536009458599</v>
+        <v>176.690384648064</v>
       </c>
       <c r="S28">
-        <v>0.01204513135161553</v>
+        <v>0.005285598128367856</v>
       </c>
       <c r="T28">
-        <v>0.01204513135161553</v>
+        <v>0.005285598128367857</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.7877936666666666</v>
+        <v>0.4650239999999999</v>
       </c>
       <c r="H29">
-        <v>2.363381</v>
+        <v>1.395072</v>
       </c>
       <c r="I29">
-        <v>0.06742384687149293</v>
+        <v>0.04045923120639546</v>
       </c>
       <c r="J29">
-        <v>0.06742384687149294</v>
+        <v>0.04045923120639547</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>16.01808066666667</v>
+        <v>13.65158233333333</v>
       </c>
       <c r="N29">
-        <v>48.054242</v>
+        <v>40.954747</v>
       </c>
       <c r="O29">
-        <v>0.05674710297927014</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="P29">
-        <v>0.05674710297927013</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="Q29">
-        <v>12.61894250135578</v>
+        <v>6.348313422975998</v>
       </c>
       <c r="R29">
-        <v>113.570482512202</v>
+        <v>57.13482080678399</v>
       </c>
       <c r="S29">
-        <v>0.00382610798167515</v>
+        <v>0.001709157532949427</v>
       </c>
       <c r="T29">
-        <v>0.00382610798167515</v>
+        <v>0.001709157532949427</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.7877936666666666</v>
+        <v>0.4650239999999999</v>
       </c>
       <c r="H30">
-        <v>2.363381</v>
+        <v>1.395072</v>
       </c>
       <c r="I30">
-        <v>0.06742384687149293</v>
+        <v>0.04045923120639546</v>
       </c>
       <c r="J30">
-        <v>0.06742384687149294</v>
+        <v>0.04045923120639547</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>19.609342</v>
+        <v>18.17840666666667</v>
       </c>
       <c r="N30">
-        <v>58.82802600000001</v>
+        <v>54.53522</v>
       </c>
       <c r="O30">
-        <v>0.06946983056124748</v>
+        <v>0.0562519120841046</v>
       </c>
       <c r="P30">
-        <v>0.06946983056124745</v>
+        <v>0.05625191208410459</v>
       </c>
       <c r="Q30">
-        <v>15.44811543510067</v>
+        <v>8.45339538176</v>
       </c>
       <c r="R30">
-        <v>139.033038915906</v>
+        <v>76.08055843583999</v>
       </c>
       <c r="S30">
-        <v>0.00468392321795011</v>
+        <v>0.002275909116812619</v>
       </c>
       <c r="T30">
-        <v>0.004683923217950109</v>
+        <v>0.002275909116812619</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.7877936666666666</v>
+        <v>0.4650239999999999</v>
       </c>
       <c r="H31">
-        <v>2.363381</v>
+        <v>1.395072</v>
       </c>
       <c r="I31">
-        <v>0.06742384687149293</v>
+        <v>0.04045923120639546</v>
       </c>
       <c r="J31">
-        <v>0.06742384687149294</v>
+        <v>0.04045923120639547</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>63.884013</v>
+        <v>121.9471053333333</v>
       </c>
       <c r="N31">
-        <v>191.652039</v>
+        <v>365.841316</v>
       </c>
       <c r="O31">
-        <v>0.2263212890408322</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="P31">
-        <v>0.2263212890408321</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="Q31">
-        <v>50.327420842651</v>
+        <v>56.708330710528</v>
       </c>
       <c r="R31">
-        <v>452.946787583859</v>
+        <v>510.374976394752</v>
       </c>
       <c r="S31">
-        <v>0.01525945193604796</v>
+        <v>0.01526759379335274</v>
       </c>
       <c r="T31">
-        <v>0.01525945193604796</v>
+        <v>0.01526759379335274</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.8452883333333334</v>
+        <v>1.006518333333333</v>
       </c>
       <c r="H32">
-        <v>2.535865</v>
+        <v>3.019555</v>
       </c>
       <c r="I32">
-        <v>0.07234456630005</v>
+        <v>0.08757173384988551</v>
       </c>
       <c r="J32">
-        <v>0.07234456630005</v>
+        <v>0.08757173384988551</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>97.419871</v>
+        <v>92.253011</v>
       </c>
       <c r="N32">
-        <v>292.259613</v>
+        <v>276.759033</v>
       </c>
       <c r="O32">
-        <v>0.3451284562056486</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="P32">
-        <v>0.3451284562056485</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="Q32">
-        <v>82.34788039113835</v>
+        <v>92.85434687670167</v>
       </c>
       <c r="R32">
-        <v>741.1309235202451</v>
+        <v>835.6891218903149</v>
       </c>
       <c r="S32">
-        <v>0.02496816848200345</v>
+        <v>0.0249991920463524</v>
       </c>
       <c r="T32">
-        <v>0.02496816848200344</v>
+        <v>0.02499919204635239</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.8452883333333334</v>
+        <v>1.006518333333333</v>
       </c>
       <c r="H33">
-        <v>2.535865</v>
+        <v>3.019555</v>
       </c>
       <c r="I33">
-        <v>0.07234456630005</v>
+        <v>0.08757173384988551</v>
       </c>
       <c r="J33">
-        <v>0.07234456630005</v>
+        <v>0.08757173384988551</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>104.738514</v>
       </c>
       <c r="O33">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="P33">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="Q33">
-        <v>29.51141464495667</v>
+        <v>35.14041151569667</v>
       </c>
       <c r="R33">
-        <v>265.6027318046101</v>
+        <v>316.26370364127</v>
       </c>
       <c r="S33">
-        <v>0.008947965260279316</v>
+        <v>0.009460859137109246</v>
       </c>
       <c r="T33">
-        <v>0.008947965260279312</v>
+        <v>0.009460859137109246</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.8452883333333334</v>
+        <v>1.006518333333333</v>
       </c>
       <c r="H34">
-        <v>2.535865</v>
+        <v>3.019555</v>
       </c>
       <c r="I34">
-        <v>0.07234456630005</v>
+        <v>0.08757173384988551</v>
       </c>
       <c r="J34">
-        <v>0.07234456630005</v>
+        <v>0.08757173384988551</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>50.427193</v>
+        <v>42.21774566666667</v>
       </c>
       <c r="N34">
-        <v>151.281579</v>
+        <v>126.653237</v>
       </c>
       <c r="O34">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="P34">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="Q34">
-        <v>42.62551792564833</v>
+        <v>42.4929350055039</v>
       </c>
       <c r="R34">
-        <v>383.629661330835</v>
+        <v>382.4364150495351</v>
       </c>
       <c r="S34">
-        <v>0.012924207740929</v>
+        <v>0.01144038032195027</v>
       </c>
       <c r="T34">
-        <v>0.012924207740929</v>
+        <v>0.01144038032195027</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.8452883333333334</v>
+        <v>1.006518333333333</v>
       </c>
       <c r="H35">
-        <v>2.535865</v>
+        <v>3.019555</v>
       </c>
       <c r="I35">
-        <v>0.07234456630005</v>
+        <v>0.08757173384988551</v>
       </c>
       <c r="J35">
-        <v>0.07234456630005</v>
+        <v>0.08757173384988551</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>16.01808066666667</v>
+        <v>13.65158233333333</v>
       </c>
       <c r="N35">
-        <v>48.054242</v>
+        <v>40.954747</v>
       </c>
       <c r="O35">
-        <v>0.05674710297927014</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="P35">
-        <v>0.05674710297927013</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="Q35">
-        <v>13.53989670992556</v>
+        <v>13.74056789750944</v>
       </c>
       <c r="R35">
-        <v>121.85907038933</v>
+        <v>123.665111077585</v>
       </c>
       <c r="S35">
-        <v>0.004105344553819574</v>
+        <v>0.003699375497755748</v>
       </c>
       <c r="T35">
-        <v>0.004105344553819573</v>
+        <v>0.003699375497755748</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.8452883333333334</v>
+        <v>1.006518333333333</v>
       </c>
       <c r="H36">
-        <v>2.535865</v>
+        <v>3.019555</v>
       </c>
       <c r="I36">
-        <v>0.07234456630005</v>
+        <v>0.08757173384988551</v>
       </c>
       <c r="J36">
-        <v>0.07234456630005</v>
+        <v>0.08757173384988551</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>19.609342</v>
+        <v>18.17840666666667</v>
       </c>
       <c r="N36">
-        <v>58.82802600000001</v>
+        <v>54.53522</v>
       </c>
       <c r="O36">
-        <v>0.06946983056124748</v>
+        <v>0.0562519120841046</v>
       </c>
       <c r="P36">
-        <v>0.06946983056124745</v>
+        <v>0.05625191208410459</v>
       </c>
       <c r="Q36">
-        <v>16.57554801694334</v>
+        <v>18.29689958078889</v>
       </c>
       <c r="R36">
-        <v>149.17993215249</v>
+        <v>164.6720962271</v>
       </c>
       <c r="S36">
-        <v>0.005025764762891407</v>
+        <v>0.004926077473576367</v>
       </c>
       <c r="T36">
-        <v>0.005025764762891406</v>
+        <v>0.004926077473576366</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.8452883333333334</v>
+        <v>1.006518333333333</v>
       </c>
       <c r="H37">
-        <v>2.535865</v>
+        <v>3.019555</v>
       </c>
       <c r="I37">
-        <v>0.07234456630005</v>
+        <v>0.08757173384988551</v>
       </c>
       <c r="J37">
-        <v>0.07234456630005</v>
+        <v>0.08757173384988551</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>63.884013</v>
+        <v>121.9471053333333</v>
       </c>
       <c r="N37">
-        <v>191.652039</v>
+        <v>365.841316</v>
       </c>
       <c r="O37">
-        <v>0.2263212890408322</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="P37">
-        <v>0.2263212890408321</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="Q37">
-        <v>54.00041087541501</v>
+        <v>122.7419972149311</v>
       </c>
       <c r="R37">
-        <v>486.0036978787351</v>
+        <v>1104.67797493438</v>
       </c>
       <c r="S37">
-        <v>0.01637311550012726</v>
+        <v>0.03304584937314149</v>
       </c>
       <c r="T37">
-        <v>0.01637311550012726</v>
+        <v>0.03304584937314149</v>
       </c>
     </row>
   </sheetData>
